--- a/data/panelapp/uk/Thrombophilia.xlsx
+++ b/data/panelapp/uk/Thrombophilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524695</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524708</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524712</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524715</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524719</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524722</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524726</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524729</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524732</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524735</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524738</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524741</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524744</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524747</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524750</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524753</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524756</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524760</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524763</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Thrombophilia</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524766</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -977,6 +1082,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Thrombophilia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:27.524769</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Thrombophilia.xlsx
+++ b/data/panelapp/uk/Thrombophilia.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524695</t>
+          <t>2021-10-05 14:22:57.868717</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524708</t>
+          <t>2021-10-05 14:22:57.868725</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524712</t>
+          <t>2021-10-05 14:22:57.868728</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524715</t>
+          <t>2021-10-05 14:22:57.868731</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524719</t>
+          <t>2021-10-05 14:22:57.868734</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524722</t>
+          <t>2021-10-05 14:22:57.868737</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524726</t>
+          <t>2021-10-05 14:22:57.868739</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524729</t>
+          <t>2021-10-05 14:22:57.868742</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524732</t>
+          <t>2021-10-05 14:22:57.868745</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524735</t>
+          <t>2021-10-05 14:22:57.868747</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524738</t>
+          <t>2021-10-05 14:22:57.868750</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524741</t>
+          <t>2021-10-05 14:22:57.868752</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524744</t>
+          <t>2021-10-05 14:22:57.868755</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524747</t>
+          <t>2021-10-05 14:22:57.868757</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524750</t>
+          <t>2021-10-05 14:22:57.868760</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524753</t>
+          <t>2021-10-05 14:22:57.868762</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524756</t>
+          <t>2021-10-05 14:22:57.868765</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524760</t>
+          <t>2021-10-05 14:22:57.868768</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524763</t>
+          <t>2021-10-05 14:22:57.868770</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524766</t>
+          <t>2021-10-05 14:22:57.868773</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,91 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:27.524769</t>
+          <t>2021-10-05 14:22:57.868775</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thrombophilia</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>516</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-07-27T10:21:19.668610Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:57.865053</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/516/?format=json</t>
         </is>
       </c>
     </row>
